--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1089.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1089.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160404576002136</v>
+        <v>1.178731441497803</v>
       </c>
       <c r="B1">
-        <v>2.389838498530716</v>
+        <v>2.416174173355103</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.783610997860108</v>
+        <v>2.333215236663818</v>
       </c>
       <c r="E1">
-        <v>1.178873277109121</v>
+        <v>1.196381688117981</v>
       </c>
     </row>
   </sheetData>
